--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -528,6 +528,9 @@
       <c r="C11" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -589,7 +592,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469220</v>
+        <v>02323104510469229</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,9 +532,63 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -592,7 +646,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469229</v>
+        <v>0232310451046922917440207</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,9 +586,89 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F18" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F25" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -646,7 +726,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0232310451046922917440207</v>
+        <v>02323104510469229174402076258101839355130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -665,6 +665,9 @@
       <c r="C27" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F27" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -726,7 +729,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469229174402076258101839355130</v>
+        <v>02323104510469229174402076258101839355138</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -669,9 +669,90 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>483_圣诞花_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -729,7 +810,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469229174402076258101839355138</v>
+        <v>02323104510469229174402076258101839355138203515815202010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -749,6 +749,9 @@
       <c r="C37" t="str">
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F37" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -810,7 +813,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469229174402076258101839355138203515815202010150</v>
+        <v>02323104510469229174402076258101839355138203515815202010151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -750,7 +750,7 @@
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F37" t="str">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +813,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02323104510469229174402076258101839355138203515815202010151</v>
+        <v>023231045104692291744020762581018393551382035158152020101518</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,9 +753,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -813,7 +821,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>023231045104692291744020762581018393551382035158152020101518</v>
+        <v>0232310451046922917440207625810183935513820351581520201015185</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -761,9 +761,95 @@
         <v>5</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>7</v>
+      </c>
+      <c r="C39" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8</v>
+      </c>
+      <c r="C41" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F43" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>696_百合笑脸_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>9</v>
+      </c>
+      <c r="C47" t="str">
+        <v>726_鸢尾叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -821,7 +907,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0232310451046922917440207625810183935513820351581520201015185</v>
+        <v>0232310451046922917440207625810183935513820351581520201015185110571217355200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -846,10 +846,40 @@
       <c r="C48" t="str">
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
+      <c r="F48" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F49" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>10</v>
+      </c>
+      <c r="C50" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -907,7 +937,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0232310451046922917440207625810183935513820351581520201015185110571217355200</v>
+        <v>023231045104692291744020762581018393551382035158152020101518511057121735520323145</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-31.xlsx
@@ -939,6 +939,9 @@
       <c r="G2" t="str">
         <v>023231045104692291744020762581018393551382035158152020101518511057121735520323145</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
